--- a/app/views/ExportOrder/exportOrder.xlsx
+++ b/app/views/ExportOrder/exportOrder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -45,18 +45,6 @@
     <t>金额</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${voi}" var="voi"&gt;</t>
-  </si>
-  <si>
-    <t>${voi.id}</t>
-  </si>
-  <si>
-    <t>${voi.username}</t>
-  </si>
-  <si>
-    <t>${voi.food}</t>
-  </si>
-  <si>
     <t>电话:${voi.phone},QQ:${voi.QQ},微信:${voi.weixin},邮箱:${voi.email}</t>
   </si>
   <si>
@@ -75,14 +63,31 @@
     <t>${voi.money}</t>
   </si>
   <si>
+    <t>&lt;jx:forEach items="${orders}" var="order"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${orders}" var="order"&gt;&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +157,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,16 +454,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="90.875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,43 +503,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="27">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -524,12 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,12 +564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
